--- a/tables/hyundai.xlsx
+++ b/tables/hyundai.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.51671402698712</v>
+        <v>14.42167987793753</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>diesel</t>
+          <t>remanufaturada</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.92522278155935</v>
+        <v>12.84279577033662</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>remanufaturada</t>
+          <t>diesel</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12.9185648824376</v>
+        <v>12.83081519848717</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.83844006605258</v>
+        <v>12.75439279305862</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.79265074342728</v>
+        <v>12.70627549789399</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.17946301605693</v>
+        <v>12.09972975814056</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12.03985240289823</v>
+        <v>11.95856000866796</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.04853328415031</v>
+        <v>10.97048256750546</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.00171551891631</v>
+        <v>10.92557958571484</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.76281434787085</v>
+        <v>10.68678205006605</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.74056198673756</v>
+        <v>10.66468688742135</v>
       </c>
     </row>
     <row r="13">
@@ -595,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(diesel)</t>
+          <t>injetor</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.59937868837411</v>
+        <v>10.51887092255525</v>
       </c>
     </row>
     <row r="14">
@@ -608,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>injetor</t>
+          <t>your</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.59505833054121</v>
+        <v>10.42728278460941</v>
       </c>
     </row>
     <row r="15">
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>caminhão</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.49816579914147</v>
+        <v>10.30308802881246</v>
       </c>
     </row>
     <row r="16">
@@ -634,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>caminhão</t>
+          <t>bomba</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.38096227593144</v>
+        <v>10.12236073240167</v>
       </c>
     </row>
     <row r="17">
@@ -647,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bomba</t>
+          <t>bico</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.19886898108382</v>
+        <v>10.09119641982405</v>
       </c>
     </row>
     <row r="18">
@@ -660,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bico</t>
+          <t>range</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.16746911802152</v>
+        <v>10.00419168998838</v>
       </c>
     </row>
     <row r="19">
@@ -673,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>thanks</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10.07536762286565</v>
+        <v>9.863063768156524</v>
       </c>
     </row>
     <row r="20">
@@ -686,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>thanks</t>
+          <t>partir</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.921253246341228</v>
+        <v>9.62948145531066</v>
       </c>
     </row>
     <row r="21">
@@ -699,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>partir</t>
+          <t>volkswagem</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.707891467320614</v>
+        <v>9.499622429376322</v>
       </c>
     </row>
     <row r="22">
@@ -712,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>volkswagem</t>
+          <t>vagas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.56222183121503</v>
+        <v>9.470987378090276</v>
       </c>
     </row>
     <row r="23">
@@ -725,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vagas</t>
+          <t>really</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.536986848115012</v>
+        <v>9.459925340730457</v>
       </c>
     </row>
     <row r="24">
@@ -738,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>dies.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.519683947679853</v>
+        <v>9.384842810083184</v>
       </c>
     </row>
     <row r="25">
@@ -751,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dies.</t>
+          <t>this</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.448639483006463</v>
+        <v>9.320984437314577</v>
       </c>
     </row>
     <row r="26">
@@ -764,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>read</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.392265089979322</v>
+        <v>9.320638689913251</v>
       </c>
     </row>
     <row r="27">
@@ -777,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>diogo</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.375628003017487</v>
+        <v>9.278401546251942</v>
       </c>
     </row>
     <row r="28">
@@ -790,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>diogo</t>
+          <t>bolsonaro</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.339543174893791</v>
+        <v>9.217593420180293</v>
       </c>
     </row>
     <row r="29">
@@ -803,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bolsonaro</t>
+          <t>land</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.281827090477725</v>
+        <v>9.161968635005508</v>
       </c>
     </row>
     <row r="30">
@@ -816,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>scania</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.225814678734006</v>
+        <v>9.031064663256537</v>
       </c>
     </row>
     <row r="31">
@@ -829,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>scania</t>
+          <t>aut.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.096475999997226</v>
+        <v>8.98307432572121</v>
       </c>
     </row>
     <row r="32">
@@ -842,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>aut.</t>
+          <t>emprego</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.045673727559919</v>
+        <v>8.976617756361486</v>
       </c>
     </row>
     <row r="33">
@@ -855,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>emprego</t>
+          <t>gostaria</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.041634738162401</v>
+        <v>8.947971022964634</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gostaria</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.008797910769907</v>
+        <v>8.939270599487692</v>
       </c>
     </row>
     <row r="35">
@@ -881,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cargo</t>
+          <t>axor</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.004017078579825</v>
+        <v>8.927449202786329</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.987104009106419</v>
+        <v>8.917472194948649</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>axor</t>
+          <t>mainardi</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.98011880148727</v>
+        <v>8.894677562370466</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mainardi</t>
+          <t>again.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.950865483653812</v>
+        <v>8.88346735753368</v>
       </c>
     </row>
     <row r="39">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.940488950998096</v>
+        <v>8.859020971834408</v>
       </c>
     </row>
     <row r="40">
@@ -946,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>again.</t>
+          <t>very</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.935877474932965</v>
+        <v>8.849036578787059</v>
       </c>
     </row>
     <row r="41">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.91051750803736</v>
+        <v>8.833408684190653</v>
       </c>
     </row>
     <row r="42">
@@ -972,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>crissiumal</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.904936184729586</v>
+        <v>8.815605797835611</v>
       </c>
     </row>
     <row r="43">
@@ -985,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>crissiumal</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.867615549908214</v>
+        <v>8.792458146992393</v>
       </c>
     </row>
     <row r="44">
@@ -998,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>more.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.844331334022387</v>
+        <v>8.769036553095818</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>more.</t>
+          <t>that</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.820771558891344</v>
+        <v>8.749179450295514</v>
       </c>
     </row>
     <row r="46">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>great</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.808654984519473</v>
+        <v>8.704935122477661</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8.759924435581897</v>
+        <v>8.672475861815379</v>
       </c>
     </row>
     <row r="48">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>hilux</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.723641184967576</v>
+        <v>8.63654320944705</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hilux</t>
+          <t>evoque</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8.700089847590387</v>
+        <v>8.594929563571078</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>evoque</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.653356531530163</v>
+        <v>8.578251414583502</v>
       </c>
     </row>
     <row r="51">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>copa</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.643088759332949</v>
+        <v>8.573479496995208</v>
       </c>
     </row>
     <row r="52">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>copa</t>
+          <t>dies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.63656211998596</v>
+        <v>8.566675109454266</v>
       </c>
     </row>
     <row r="53">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dies</t>
+          <t>mercedes</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.620791030277116</v>
+        <v>8.538927918049012</v>
       </c>
     </row>
     <row r="54">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mercedes</t>
+          <t>triton</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.605603880574916</v>
+        <v>8.512278486824117</v>
       </c>
     </row>
     <row r="55">
@@ -1141,11 +1141,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>triton</t>
+          <t>thank</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.570143605872495</v>
+        <v>8.512199047765408</v>
       </c>
     </row>
     <row r="56">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>automã¡tico</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.568291652780355</v>
+        <v>8.491255083899432</v>
       </c>
     </row>
     <row r="57">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>automã¡tico</t>
+          <t>tenho</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.54135125219762</v>
+        <v>8.470110290926167</v>
       </c>
     </row>
     <row r="58">
@@ -1180,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tenho</t>
+          <t>looking</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.53243233582752</v>
+        <v>8.455739865700721</v>
       </c>
     </row>
     <row r="59">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.510880154006855</v>
+        <v>8.44432075995034</v>
       </c>
     </row>
     <row r="60">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>looking</t>
+          <t>defender</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.509155005556543</v>
+        <v>8.439629515439629</v>
       </c>
     </row>
     <row r="61">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>defender</t>
+          <t>diogo,</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.498441870792639</v>
+        <v>8.377902431346469</v>
       </c>
     </row>
     <row r="62">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>diogo,</t>
+          <t>like</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.430825870001911</v>
+        <v>8.361683239585686</v>
       </c>
     </row>
     <row r="63">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>constellation</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.419952418953828</v>
+        <v>8.357919902457382</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>constellation</t>
+          <t>some</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8.410717110931643</v>
+        <v>8.337718980950351</v>
       </c>
     </row>
     <row r="65">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>velar</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.39038857965129</v>
+        <v>8.321513830948046</v>
       </c>
     </row>
     <row r="66">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>velar</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8.37060857056567</v>
+        <v>8.278192694023842</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>agrale</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.364632153347046</v>
+        <v>8.267922122050852</v>
       </c>
     </row>
     <row r="68">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.328207295657561</v>
+        <v>8.266519668311615</v>
       </c>
     </row>
     <row r="69">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>agrale</t>
+          <t>mec.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.325537918216254</v>
+        <v>8.254632367577043</v>
       </c>
     </row>
     <row r="70">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sprinter</t>
+          <t>will</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.310165380545257</v>
+        <v>8.251531886410598</v>
       </c>
     </row>
     <row r="71">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>sprinter</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.307624491425544</v>
+        <v>8.249466803679978</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>mec.</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8.306777105870264</v>
+        <v>8.24093414483775</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>info</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8.300622624380919</v>
+        <v>8.230852105542553</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>mecânica</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8.279411964861653</v>
+        <v>8.223140657304713</v>
       </c>
     </row>
     <row r="75">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mecânica</t>
+          <t>moro</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8.279040263247238</v>
+        <v>8.212232068281791</v>
       </c>
     </row>
     <row r="76">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>moro</t>
+          <t>trabalhar</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.26634798910464</v>
+        <v>8.195970909233994</v>
       </c>
     </row>
     <row r="77">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>trabalhar</t>
+          <t>furgão</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.256275869791908</v>
+        <v>8.179654024350551</v>
       </c>
     </row>
     <row r="78">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>furgão</t>
+          <t>marruã¡</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8.235258015059527</v>
+        <v>8.135836983716553</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>iveco</t>
+          <t>pergunta:</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.191289297168126</v>
+        <v>8.135836983716553</v>
       </c>
     </row>
     <row r="80">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>marruã¡</t>
+          <t>navistar</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8.183836278844984</v>
+        <v>8.135836983716553</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>pergunta:</t>
+          <t>iveco</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8.183836278844984</v>
+        <v>8.129841189565454</v>
       </c>
     </row>
     <row r="82">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>navistar</t>
+          <t>falo</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8.183836278844984</v>
+        <v>8.103123816012314</v>
       </c>
     </row>
     <row r="83">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8.162054168099704</v>
+        <v>8.098814815533752</v>
       </c>
     </row>
     <row r="84">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>falo</t>
+          <t>just</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.150930112068323</v>
+        <v>8.042170248052999</v>
       </c>
     </row>
     <row r="85">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>just</t>
+          <t>chaveiro</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8.096839645856564</v>
+        <v>8.031269790505968</v>
       </c>
     </row>
     <row r="86">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>chaveiro</t>
+          <t>ranger</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8.084193229161409</v>
+        <v>7.960456822980545</v>
       </c>
     </row>
     <row r="87">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ranger</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>8.019860503574439</v>
+        <v>7.953371951625289</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>policial:</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8.005782069024574</v>
+        <v>7.930919461827224</v>
       </c>
     </row>
     <row r="89">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>policial:</t>
+          <t>frontier</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.977709797554202</v>
+        <v>7.895710419202119</v>
       </c>
     </row>
     <row r="90">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>frontier</t>
+          <t>with</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.952898468706258</v>
+        <v>7.895710419202119</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>muito</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.952898468706258</v>
+        <v>7.863201069777909</v>
       </c>
     </row>
     <row r="92">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>como</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.938807483408673</v>
+        <v>7.859404985362289</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>como</t>
+          <t>mais</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.932648214099032</v>
+        <v>7.857943000870484</v>
       </c>
     </row>
     <row r="94">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>muito</t>
+          <t>pick-up</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.928128578512363</v>
+        <v>7.857661979149236</v>
       </c>
     </row>
     <row r="95">
@@ -1661,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pick-up</t>
+          <t>you!</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.911077119005054</v>
+        <v>7.857611022303629</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>you!</t>
+          <t>great.</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.903968857547725</v>
+        <v>7.857611022303629</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>great.</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.903968857547725</v>
+        <v>7.845111125457868</v>
       </c>
     </row>
     <row r="98">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.899780523261434</v>
+        <v>7.82970150706362</v>
       </c>
     </row>
     <row r="99">
@@ -1713,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.881296676720272</v>
+        <v>7.826178163993778</v>
       </c>
     </row>
     <row r="100">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>pajero</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.875616345371849</v>
+        <v>7.81379165713484</v>
       </c>
     </row>
     <row r="101">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>pajero</t>
+          <t>mercedes-benz</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.868242802265453</v>
+        <v>7.733145412369358</v>
       </c>
     </row>
   </sheetData>

--- a/tables/hyundai.xlsx
+++ b/tables/hyundai.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.42167987793753</v>
+        <v>14.63333267441425</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>remanufaturada</t>
+          <t>diesel</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.84279577033662</v>
+        <v>13.0410725550865</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>diesel</t>
+          <t>remanufaturada</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12.83081519848717</v>
+        <v>13.01154294830485</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.75439279305862</v>
+        <v>12.94157645854429</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.70627549789399</v>
+        <v>12.89864384597004</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.09972975814056</v>
+        <v>12.27730557882153</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.95856000866796</v>
+        <v>12.13960821863453</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.97048256750546</v>
+        <v>11.14431116080694</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.92557958571484</v>
+        <v>11.09514371961419</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.68678205006605</v>
+        <v>10.85611537512733</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.66468688742135</v>
+        <v>10.83367011201826</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.51887092255525</v>
+        <v>10.68854969716211</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.42728278460941</v>
+        <v>10.58514801935342</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.30308802881246</v>
+        <v>10.4765236026676</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.12236073240167</v>
+        <v>10.29275405889595</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.09119641982405</v>
+        <v>10.2610651462741</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.00419168998838</v>
+        <v>10.16270929009286</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.863063768156524</v>
+        <v>9.992658928490798</v>
       </c>
     </row>
     <row r="20">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.62948145531066</v>
+        <v>9.804110243800357</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.499622429376322</v>
+        <v>9.63903903476959</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.470987378090276</v>
+        <v>9.617976355593793</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.459925340730457</v>
+        <v>9.593015144773341</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.384842810083184</v>
+        <v>9.526925886168565</v>
       </c>
     </row>
     <row r="25">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.320984437314577</v>
+        <v>9.479735261329493</v>
       </c>
     </row>
     <row r="26">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.320638689913251</v>
+        <v>9.443106687062063</v>
       </c>
     </row>
     <row r="27">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.278401546251942</v>
+        <v>9.414571510550095</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.217593420180293</v>
+        <v>9.360649743432266</v>
       </c>
     </row>
     <row r="29">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.161968635005508</v>
+        <v>9.304161665976507</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.031064663256537</v>
+        <v>9.176743795241213</v>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.98307432572121</v>
+        <v>9.122490931114481</v>
       </c>
     </row>
     <row r="32">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.976617756361486</v>
+        <v>9.121418611151672</v>
       </c>
     </row>
     <row r="33">
@@ -855,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gostaria</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.947971022964634</v>
+        <v>9.08346901131037</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cargo</t>
+          <t>gostaria</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.939270599487692</v>
+        <v>9.083440020516697</v>
       </c>
     </row>
     <row r="35">
@@ -881,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>axor</t>
+          <t>turbo</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.927449202786329</v>
+        <v>9.072550851806495</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>turbo</t>
+          <t>axor</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.917472194948649</v>
+        <v>9.044750909234429</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mainardi</t>
+          <t>entre</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.894677562370466</v>
+        <v>9.04046023115059</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>again.</t>
+          <t>mainardi</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.88346735753368</v>
+        <v>9.019815008086194</v>
       </c>
     </row>
     <row r="39">
@@ -933,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>entre</t>
+          <t>ford</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.859020971834408</v>
+        <v>9.005139565809529</v>
       </c>
     </row>
     <row r="40">
@@ -946,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>again.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.849036578787059</v>
+        <v>9.000191167050227</v>
       </c>
     </row>
     <row r="41">
@@ -959,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ford</t>
+          <t>very</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.833408684190653</v>
+        <v>8.973531910602027</v>
       </c>
     </row>
     <row r="42">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.815605797835611</v>
+        <v>8.931437944283124</v>
       </c>
     </row>
     <row r="43">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.792458146992393</v>
+        <v>8.90798614621011</v>
       </c>
     </row>
     <row r="44">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.769036553095818</v>
+        <v>8.884256805624711</v>
       </c>
     </row>
     <row r="45">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.749179450295514</v>
+        <v>8.881638816390103</v>
       </c>
     </row>
     <row r="46">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.704935122477661</v>
+        <v>8.827403119626474</v>
       </c>
     </row>
     <row r="47">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8.672475861815379</v>
+        <v>8.78642736068287</v>
       </c>
     </row>
     <row r="48">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.63654320944705</v>
+        <v>8.778069427172353</v>
       </c>
     </row>
     <row r="49">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8.594929563571078</v>
+        <v>8.725053642987444</v>
       </c>
     </row>
     <row r="50">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.578251414583502</v>
+        <v>8.722652195456325</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.573479496995208</v>
+        <v>8.713972295621854</v>
       </c>
     </row>
     <row r="52">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>dies</t>
+          <t>mercedes</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.566675109454266</v>
+        <v>8.687423527969401</v>
       </c>
     </row>
     <row r="53">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mercedes</t>
+          <t>dies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.538927918049012</v>
+        <v>8.687197954038183</v>
       </c>
     </row>
     <row r="54">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.512278486824117</v>
+        <v>8.641151259269909</v>
       </c>
     </row>
     <row r="55">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.512199047765408</v>
+        <v>8.637124212369995</v>
       </c>
     </row>
     <row r="56">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>automã¡tico</t>
+          <t>tenho</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.491255083899432</v>
+        <v>8.608909188137693</v>
       </c>
     </row>
     <row r="57">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tenho</t>
+          <t>automã¡tico</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.470110290926167</v>
+        <v>8.602825442755872</v>
       </c>
     </row>
     <row r="58">
@@ -1180,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>looking</t>
+          <t>mitsubishi</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.455739865700721</v>
+        <v>8.592556757481143</v>
       </c>
     </row>
     <row r="59">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mitsubishi</t>
+          <t>looking</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.44432075995034</v>
+        <v>8.574701984452158</v>
       </c>
     </row>
     <row r="60">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.439629515439629</v>
+        <v>8.570611900217456</v>
       </c>
     </row>
     <row r="61">
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.377902431346469</v>
+        <v>8.495769470748726</v>
       </c>
     </row>
     <row r="62">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.361683239585686</v>
+        <v>8.491455904306818</v>
       </c>
     </row>
     <row r="63">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.357919902457382</v>
+        <v>8.475505811643666</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8.337718980950351</v>
+        <v>8.470704054147077</v>
       </c>
     </row>
     <row r="65">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>velar</t>
+          <t>some</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.321513830948046</v>
+        <v>8.45502068739845</v>
       </c>
     </row>
     <row r="66">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>velar</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8.278192694023842</v>
+        <v>8.430853884352889</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>agrale</t>
+          <t>presidente</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.267922122050852</v>
+        <v>8.403905639211084</v>
       </c>
     </row>
     <row r="68">
@@ -1310,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>presidente</t>
+          <t>agrale</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.266519668311615</v>
+        <v>8.396239621619097</v>
       </c>
     </row>
     <row r="69">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mec.</t>
+          <t>sprinter</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.254632367577043</v>
+        <v>8.384650036909008</v>
       </c>
     </row>
     <row r="70">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.251531886410598</v>
+        <v>8.376457051015187</v>
       </c>
     </row>
     <row r="71">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sprinter</t>
+          <t>have</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.249466803679978</v>
+        <v>8.373867766478982</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>mec.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8.24093414483775</v>
+        <v>8.370765145022624</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>mecânica</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8.230852105542553</v>
+        <v>8.347635989119679</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mecânica</t>
+          <t>info</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8.223140657304713</v>
+        <v>8.339000914409562</v>
       </c>
     </row>
     <row r="75">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8.212232068281791</v>
+        <v>8.332754912865706</v>
       </c>
     </row>
     <row r="76">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.195970909233994</v>
+        <v>8.330277510294207</v>
       </c>
     </row>
     <row r="77">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.179654024350551</v>
+        <v>8.30349098450136</v>
       </c>
     </row>
     <row r="78">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>marruã¡</t>
+          <t>iveco</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8.135836983716553</v>
+        <v>8.266693720391199</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pergunta:</t>
+          <t>marruã¡</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.135836983716553</v>
+        <v>8.242737346843308</v>
       </c>
     </row>
     <row r="80">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>navistar</t>
+          <t>pergunta:</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8.135836983716553</v>
+        <v>8.242737346843308</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>iveco</t>
+          <t>navistar</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8.129841189565454</v>
+        <v>8.242737346843308</v>
       </c>
     </row>
     <row r="82">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>falo</t>
+          <t>blog</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8.103123816012314</v>
+        <v>8.239656670296679</v>
       </c>
     </row>
     <row r="83">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>blog</t>
+          <t>falo</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8.098814815533752</v>
+        <v>8.209594346349448</v>
       </c>
     </row>
     <row r="84">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.042170248052999</v>
+        <v>8.163925754284604</v>
       </c>
     </row>
     <row r="85">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8.031269790505968</v>
+        <v>8.149136829908223</v>
       </c>
     </row>
     <row r="86">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.960456822980545</v>
+        <v>8.092756162159624</v>
       </c>
     </row>
     <row r="87">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.953371951625289</v>
+        <v>8.070095761141836</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>policial:</t>
+          <t>mais</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.930919461827224</v>
+        <v>8.038038198607449</v>
       </c>
     </row>
     <row r="89">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>frontier</t>
+          <t>policial:</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.895710419202119</v>
+        <v>8.035127322935459</v>
       </c>
     </row>
     <row r="90">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>frontier</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.895710419202119</v>
+        <v>8.023075274084794</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>muito</t>
+          <t>with</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.863201069777909</v>
+        <v>8.023075274084794</v>
       </c>
     </row>
     <row r="92">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.859404985362289</v>
+        <v>8.022526708870606</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>muito</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.857943000870484</v>
+        <v>8.007802656989918</v>
       </c>
     </row>
     <row r="94">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.857661979149236</v>
+        <v>7.97662409790067</v>
       </c>
     </row>
     <row r="95">
@@ -1661,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>you!</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.857611022303629</v>
+        <v>7.966866631689472</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>great.</t>
+          <t>you!</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.857611022303629</v>
+        <v>7.96085565137796</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>great.</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.845111125457868</v>
+        <v>7.96085565137796</v>
       </c>
     </row>
     <row r="98">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.82970150706362</v>
+        <v>7.944610327227016</v>
       </c>
     </row>
     <row r="99">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.826178163993778</v>
+        <v>7.936283104649704</v>
       </c>
     </row>
     <row r="100">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.81379165713484</v>
+        <v>7.935061087687006</v>
       </c>
     </row>
     <row r="101">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.733145412369358</v>
+        <v>7.86889706804901</v>
       </c>
     </row>
   </sheetData>
